--- a/reports.xlsx
+++ b/reports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Invoice Id</t>
   </si>
@@ -26,31 +26,25 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>2021-12-10 16:48:39.843</t>
+    <t>2021-12-15 14:42:37.172</t>
   </si>
   <si>
     <t>DEBIT_CARD</t>
   </si>
   <si>
-    <t>2021-12-10 17:06:34.879</t>
-  </si>
-  <si>
-    <t>2021-12-10 17:25:08.26</t>
-  </si>
-  <si>
-    <t>2021-12-11 08:31:58.543</t>
-  </si>
-  <si>
-    <t>2021-12-12 10:39:24.835</t>
-  </si>
-  <si>
-    <t>2021-12-12 10:43:18.508</t>
-  </si>
-  <si>
-    <t>2021-12-12 11:58:37.659</t>
-  </si>
-  <si>
-    <t>2021-12-12 20:03:25.89</t>
+    <t>2021-12-15 21:10:49.706</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:20:45.325</t>
+  </si>
+  <si>
+    <t>2021-12-16 16:13:30.19</t>
+  </si>
+  <si>
+    <t>2021-12-19 17:00:19.673</t>
+  </si>
+  <si>
+    <t>2021-12-20 22:35:08.892</t>
   </si>
   <si>
     <t>Total</t>
@@ -120,7 +114,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -129,12 +123,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.25</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -143,12 +137,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>11.54</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -157,12 +151,12 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>10.27</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -171,12 +165,12 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.98</v>
+        <v>957.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -185,12 +179,12 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.47</v>
+        <v>2866.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -199,43 +193,15 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>8.47</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="n">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>64.94</v>
+        <v>3852.62</v>
       </c>
     </row>
   </sheetData>
